--- a/Miage-Rabat/BC-MatriceEval.xlsx
+++ b/Miage-Rabat/BC-MatriceEval.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heisenberg\Desktop\MIAGE\ERP\Miage-Rabat-éàé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heisenberg\Desktop\MIAGE\ERP\Miage-Rabat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F9E90-EACA-4CAA-9313-EC2CD07CFD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4402E394-D9B8-4659-973A-DC53216E518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,30 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Poids</t>
-  </si>
-  <si>
-    <t>ERP1</t>
-  </si>
-  <si>
-    <t>ERP2</t>
-  </si>
-  <si>
-    <t>ERP3</t>
-  </si>
-  <si>
-    <t>ERP4</t>
-  </si>
-  <si>
-    <t>ERP5</t>
-  </si>
-  <si>
-    <t>ERP6</t>
-  </si>
-  <si>
-    <t>ERP7</t>
   </si>
   <si>
     <t>Total</t>
@@ -198,28 +177,109 @@
     </r>
   </si>
   <si>
-    <t>Est un Besoin</t>
-  </si>
-  <si>
-    <t>Un Critère</t>
-  </si>
-  <si>
-    <t>Exprimé sous forme de Question</t>
-  </si>
-  <si>
-    <t>A laquelle un Expert peut/sait répondre</t>
-  </si>
-  <si>
     <t>Technologiques</t>
   </si>
   <si>
     <t>Sous-Groupe:</t>
   </si>
   <si>
-    <t>Doit etre concret et Mesurable</t>
-  </si>
-  <si>
     <t>G2</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>SAGE</t>
+  </si>
+  <si>
+    <t>MS-DYNAMICS</t>
+  </si>
+  <si>
+    <t>Odoo</t>
+  </si>
+  <si>
+    <t>NetSuite</t>
+  </si>
+  <si>
+    <t>Cegid</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP gere les historiques archivés ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur a une representation à Jeddah ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur existe encore sur le marché encore dans 20 ans ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP marche sur inux?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP est codé avec Java?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP utilise oracle 11g</t>
+  </si>
+  <si>
+    <t>Est-ce que l interface utilisateur est une interface web</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP est portable de windows vers unix</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la licence de base est inferieur a 1000euros par utilisateur</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la maintenance de la licence est inf a 15% du prix de base</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP possede une garantie</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la formation est inf a 1000euros par utilisateur par jour</t>
+  </si>
+  <si>
+    <t>Est-ce que l'esiteur peut me donner 2 consultants pour 2 semaines si je l'avertie 2mois a l'avance</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP imprime nativement les factures en arabes ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP peut imprimer 2 devises dans une seule facture</t>
+  </si>
+  <si>
+    <t>Est ce que l'ERP utilise nativement le plan comptable saoudien</t>
+  </si>
+  <si>
+    <t>Est ce que l'ERP a une stucturation de la nomonclature du code produit</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur est aussi vendeur de machine?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur est aussi vendeur de base de donnee</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP peut supporter l'ouverture à l'international</t>
+  </si>
+  <si>
+    <t>Est ce que l'editeur utilise un standard PMI</t>
+  </si>
+  <si>
+    <t>Est ce que l'editeur est certifié iso9000</t>
+  </si>
+  <si>
+    <t>est ce que l'ERP arrive sur un DVD(install=&gt;RUN)</t>
+  </si>
+  <si>
+    <t>Est ce que l'edireur notifie une nouvelle version au moins 12 mois a l'avance</t>
+  </si>
+  <si>
+    <t>Est ce que les nouvelles versions de lerp sont compatibles avec les versions precendentes sur 3niveaux</t>
   </si>
 </sst>
 </file>
@@ -1506,26 +1566,28 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0.5546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1533,10 +1595,10 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1547,17 +1609,17 @@
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12">
         <f>RANK(F3,$F$3:$L$3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="13">
         <f t="shared" ref="G2:L2" si="0">RANK(G3,$F$3:$L$3)</f>
@@ -1565,46 +1627,46 @@
       </c>
       <c r="H2" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20">
         <f>F40</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:L3" si="1">G40</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H3" s="21">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" si="1"/>
@@ -1625,7 +1687,7 @@
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -1634,25 +1696,25 @@
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="58"/>
@@ -1680,21 +1742,13 @@
         <v>1.01</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="54">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="54"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="34">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35">
-        <v>5</v>
-      </c>
-      <c r="H6" s="35">
-        <v>3</v>
-      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -1707,21 +1761,13 @@
         <v>1.02</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="54">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="54"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="34">
-        <v>1</v>
-      </c>
-      <c r="G7" s="35">
-        <v>5</v>
-      </c>
-      <c r="H7" s="35">
-        <v>3</v>
-      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -1734,21 +1780,13 @@
         <v>1.03</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="54">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D8" s="54"/>
       <c r="E8" s="33"/>
-      <c r="F8" s="34">
-        <v>5</v>
-      </c>
-      <c r="G8" s="35">
-        <v>5</v>
-      </c>
-      <c r="H8" s="35">
-        <v>5</v>
-      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -1761,21 +1799,13 @@
         <v>1.04</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="54">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D9" s="54"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="34">
-        <v>5</v>
-      </c>
-      <c r="G9" s="35">
-        <v>5</v>
-      </c>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
@@ -1788,16 +1818,12 @@
         <v>1.05</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="54">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D10" s="54"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="35">
-        <v>3</v>
-      </c>
+      <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -1823,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
@@ -1842,7 +1868,9 @@
         <f>A12+0.01</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="54"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
@@ -1859,7 +1887,9 @@
         <f>B13+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="64" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="54"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
@@ -1876,7 +1906,9 @@
         <f t="shared" ref="B15:B17" si="2">B14+0.01</f>
         <v>2.0299999999999994</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="63" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="54"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -1893,7 +1925,9 @@
         <f t="shared" si="2"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="63" t="s">
+        <v>36</v>
+      </c>
       <c r="D16" s="54"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
@@ -1910,7 +1944,9 @@
         <f t="shared" si="2"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="54"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
@@ -1940,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
@@ -1959,7 +1995,9 @@
         <f>A19+0.01</f>
         <v>3.01</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="54"/>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
@@ -1976,7 +2014,9 @@
         <f>B20+0.01</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="54"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
@@ -1993,7 +2033,9 @@
         <f>B21+0.01</f>
         <v>3.0299999999999994</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="63" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="54"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
@@ -2010,7 +2052,9 @@
         <f>B22+0.01</f>
         <v>3.0399999999999991</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="63" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="54"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
@@ -2027,7 +2071,9 @@
         <f>B23+0.01</f>
         <v>3.0499999999999989</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="63" t="s">
+        <v>28</v>
+      </c>
       <c r="D24" s="54"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
@@ -2057,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58"/>
@@ -2076,7 +2122,9 @@
         <f>A26+0.01</f>
         <v>4.01</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="63" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="54"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
@@ -2093,7 +2141,9 @@
         <f>B27+0.01</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="54"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34"/>
@@ -2110,7 +2160,9 @@
         <f>B28+0.01</f>
         <v>4.0299999999999994</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="63" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="54"/>
       <c r="E29" s="33"/>
       <c r="F29" s="34"/>
@@ -2127,7 +2179,9 @@
         <f>B29+0.01</f>
         <v>4.0399999999999991</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="63" t="s">
+        <v>32</v>
+      </c>
       <c r="D30" s="54"/>
       <c r="E30" s="33"/>
       <c r="F30" s="34"/>
@@ -2144,7 +2198,9 @@
         <f>B30+0.01</f>
         <v>4.0499999999999989</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="63" t="s">
+        <v>33</v>
+      </c>
       <c r="D31" s="54"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
@@ -2174,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
@@ -2193,7 +2249,9 @@
         <f>A33+0.01</f>
         <v>5.01</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="63" t="s">
+        <v>41</v>
+      </c>
       <c r="D34" s="54"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
@@ -2210,7 +2268,9 @@
         <f>B34+0.01</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="63" t="s">
+        <v>42</v>
+      </c>
       <c r="D35" s="54"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
@@ -2227,7 +2287,9 @@
         <f>B35+0.01</f>
         <v>5.0299999999999994</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="63" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="54"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
@@ -2244,7 +2306,9 @@
         <f>B36+0.01</f>
         <v>5.0399999999999991</v>
       </c>
-      <c r="C37" s="63"/>
+      <c r="C37" s="63" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="54"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
@@ -2261,7 +2325,9 @@
         <f>B37+0.01</f>
         <v>5.0499999999999989</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="63" t="s">
+        <v>45</v>
+      </c>
       <c r="D38" s="54"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
@@ -2291,20 +2357,20 @@
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
       <c r="D40" s="48" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="50">
         <f t="shared" ref="F40:L40" si="3">SUMPRODUCT($D$6:$D$39,F6:F39)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G40" s="51">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H40" s="51">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I40" s="51">
         <f t="shared" si="3"/>

--- a/Miage-Rabat/BC-MatriceEval.xlsx
+++ b/Miage-Rabat/BC-MatriceEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heisenberg\Desktop\MIAGE\ERP\Miage-Rabat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4402E394-D9B8-4659-973A-DC53216E518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D390D0-4EC7-4D41-8837-857F7730165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,85 +201,85 @@
     <t>Odoo</t>
   </si>
   <si>
-    <t>NetSuite</t>
-  </si>
-  <si>
     <t>Cegid</t>
   </si>
   <si>
-    <t>Est-ce que l'ERP gere les historiques archivés ?</t>
-  </si>
-  <si>
-    <t>Est-ce que l'editeur a une representation à Jeddah ?</t>
-  </si>
-  <si>
     <t>Est-ce que l'editeur existe encore sur le marché encore dans 20 ans ?</t>
   </si>
   <si>
-    <t>Est-ce que l'ERP marche sur inux?</t>
-  </si>
-  <si>
     <t>Est-ce que l'ERP est codé avec Java?</t>
   </si>
   <si>
-    <t>Est-ce que l'ERP utilise oracle 11g</t>
-  </si>
-  <si>
-    <t>Est-ce que l interface utilisateur est une interface web</t>
-  </si>
-  <si>
-    <t>Est-ce que l'ERP est portable de windows vers unix</t>
-  </si>
-  <si>
-    <t>Est-ce que le cout de la licence de base est inferieur a 1000euros par utilisateur</t>
-  </si>
-  <si>
-    <t>Est-ce que le cout de la maintenance de la licence est inf a 15% du prix de base</t>
-  </si>
-  <si>
-    <t>Est-ce que l'ERP possede une garantie</t>
-  </si>
-  <si>
-    <t>Est-ce que le cout de la formation est inf a 1000euros par utilisateur par jour</t>
-  </si>
-  <si>
-    <t>Est-ce que l'esiteur peut me donner 2 consultants pour 2 semaines si je l'avertie 2mois a l'avance</t>
-  </si>
-  <si>
     <t>Est-ce que l'ERP imprime nativement les factures en arabes ?</t>
   </si>
   <si>
-    <t>Est-ce que l'ERP peut imprimer 2 devises dans une seule facture</t>
-  </si>
-  <si>
-    <t>Est ce que l'ERP utilise nativement le plan comptable saoudien</t>
-  </si>
-  <si>
-    <t>Est ce que l'ERP a une stucturation de la nomonclature du code produit</t>
-  </si>
-  <si>
-    <t>Est-ce que l'editeur est aussi vendeur de machine?</t>
-  </si>
-  <si>
-    <t>Est-ce que l'editeur est aussi vendeur de base de donnee</t>
-  </si>
-  <si>
-    <t>Est-ce que l'ERP peut supporter l'ouverture à l'international</t>
-  </si>
-  <si>
-    <t>Est ce que l'editeur utilise un standard PMI</t>
-  </si>
-  <si>
-    <t>Est ce que l'editeur est certifié iso9000</t>
-  </si>
-  <si>
-    <t>est ce que l'ERP arrive sur un DVD(install=&gt;RUN)</t>
-  </si>
-  <si>
-    <t>Est ce que l'edireur notifie une nouvelle version au moins 12 mois a l'avance</t>
-  </si>
-  <si>
-    <t>Est ce que les nouvelles versions de lerp sont compatibles avec les versions precendentes sur 3niveaux</t>
+    <t>Est-ce que l'ERP sait affiché les archives en ligne ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur est aussi vendeur de machine ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur est aussi vendeur de base de donnee ?</t>
+  </si>
+  <si>
+    <t>Est ce que l'ERP a une stucturation de la nomonclature du code produit ?</t>
+  </si>
+  <si>
+    <t>Est ce que l'ERP utilise nativement le plan comptable saoudien ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'interface utilisateur est une application web ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP est portable de windows vers unix ?</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la licence de base est inferieur a 1000$ par utilisateur ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP utilise oracle 11g ?</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la maintenance de la licence est inferieur a 15% du prix de base ?</t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la formation est infereur a 1000$ par utilisateur par jour ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP possede une garantie ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'esiteur peut me donner 2 consultants pour 2 semaines si je l'avertie 2mois a l'avance ?</t>
+  </si>
+  <si>
+    <t>Est ce que l'editeur utilise un standard PMI ?</t>
+  </si>
+  <si>
+    <t>Est ce que l'editeur est certifié ISO9000 ?</t>
+  </si>
+  <si>
+    <t>est ce que l'ERP arrive sur un DVD(install=&gt;RUN) ?</t>
+  </si>
+  <si>
+    <t>Est ce que l'edireur notifie la nouvelle version au moins 12 mois a l'avance ?</t>
+  </si>
+  <si>
+    <t>Est ce que les nouvelles versions de l'ERP sont compatibles avec les versions precendentes sur 3 niveaux ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur a une representation à Riyadh ?</t>
+  </si>
+  <si>
+    <t>People soft</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP sait gerer les transactions sur plusieurs machines distance ?</t>
+  </si>
+  <si>
+    <t>Est-ce que Siebel est nativement connecté dans ERP ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP tourne s'installe sur unix ?</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -349,12 +349,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -1134,20 +1128,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1566,17 +1560,17 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0.5546875" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" style="1" customWidth="1"/>
@@ -1602,10 +1596,10 @@
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="65">
+      <c r="K1" s="63">
         <v>44928</v>
       </c>
-      <c r="L1" s="66"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1710,11 +1704,11 @@
       <c r="J4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,34 +1735,54 @@
         <f>A5+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>22</v>
+      <c r="C6" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="35">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>5</v>
+      </c>
+      <c r="J6" s="35">
+        <v>5</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="32">
         <f>B6+0.01</f>
         <v>1.02</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>23</v>
+      <c r="C7" s="65" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="34">
+        <v>5</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5</v>
+      </c>
       <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="I7" s="35">
+        <v>5</v>
+      </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="36"/>
@@ -1779,15 +1793,19 @@
         <f>B7+0.01</f>
         <v>1.03</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>38</v>
+      <c r="C8" s="65" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="36"/>
@@ -1798,12 +1816,14 @@
         <f>B8+0.01</f>
         <v>1.04</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>39</v>
+      <c r="C9" s="65" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="F9" s="34">
+        <v>1</v>
+      </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -1811,19 +1831,23 @@
       <c r="K9" s="35"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32">
         <f>B9+0.01</f>
         <v>1.05</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>40</v>
+      <c r="C10" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="34">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35">
+        <v>5</v>
+      </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -1868,8 +1892,8 @@
         <f>A12+0.01</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>34</v>
+      <c r="C13" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="54"/>
       <c r="E13" s="33"/>
@@ -1887,8 +1911,8 @@
         <f>B13+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>21</v>
+      <c r="C14" s="65" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="33"/>
@@ -1906,13 +1930,17 @@
         <f t="shared" ref="B15:B17" si="2">B14+0.01</f>
         <v>2.0299999999999994</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>35</v>
+      <c r="C15" s="65" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="34">
+        <v>5</v>
+      </c>
+      <c r="G15" s="35">
+        <v>5</v>
+      </c>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -1925,8 +1953,8 @@
         <f t="shared" si="2"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>36</v>
+      <c r="C16" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="33"/>
@@ -1938,14 +1966,14 @@
       <c r="K16" s="35"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32">
         <f t="shared" si="2"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>37</v>
+      <c r="C17" s="65" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="33"/>
@@ -1995,8 +2023,8 @@
         <f>A19+0.01</f>
         <v>3.01</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>24</v>
+      <c r="C20" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="54"/>
       <c r="E20" s="33"/>
@@ -2014,8 +2042,8 @@
         <f>B20+0.01</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="C21" s="63" t="s">
-        <v>25</v>
+      <c r="C21" s="65" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="54"/>
       <c r="E21" s="33"/>
@@ -2033,12 +2061,14 @@
         <f>B21+0.01</f>
         <v>3.0299999999999994</v>
       </c>
-      <c r="C22" s="63" t="s">
-        <v>26</v>
+      <c r="C22" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="34">
+        <v>5</v>
+      </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
@@ -2052,8 +2082,8 @@
         <f>B22+0.01</f>
         <v>3.0399999999999991</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>27</v>
+      <c r="C23" s="65" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="33"/>
@@ -2062,7 +2092,9 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="35">
+        <v>5</v>
+      </c>
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2071,15 +2103,19 @@
         <f>B23+0.01</f>
         <v>3.0499999999999989</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>28</v>
+      <c r="C24" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="G24" s="35">
+        <v>5</v>
+      </c>
       <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="36"/>
@@ -2116,33 +2152,35 @@
       <c r="K26" s="56"/>
       <c r="L26" s="62"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32">
         <f>A26+0.01</f>
         <v>4.01</v>
       </c>
-      <c r="C27" s="63" t="s">
-        <v>29</v>
+      <c r="C27" s="65" t="s">
+        <v>30</v>
       </c>
       <c r="D27" s="54"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="G27" s="35">
+        <v>5</v>
+      </c>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32">
         <f>B27+0.01</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="C28" s="63" t="s">
-        <v>30</v>
+      <c r="C28" s="65" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="33"/>
@@ -2160,8 +2198,8 @@
         <f>B28+0.01</f>
         <v>4.0299999999999994</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>31</v>
+      <c r="C29" s="65" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="54"/>
       <c r="E29" s="33"/>
@@ -2173,14 +2211,14 @@
       <c r="K29" s="35"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32">
         <f>B29+0.01</f>
         <v>4.0399999999999991</v>
       </c>
-      <c r="C30" s="63" t="s">
-        <v>32</v>
+      <c r="C30" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="D30" s="54"/>
       <c r="E30" s="33"/>
@@ -2192,19 +2230,21 @@
       <c r="K30" s="35"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32">
         <f>B30+0.01</f>
         <v>4.0499999999999989</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>33</v>
+      <c r="C31" s="65" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="33"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="G31" s="35">
+        <v>5</v>
+      </c>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2249,8 +2289,8 @@
         <f>A33+0.01</f>
         <v>5.01</v>
       </c>
-      <c r="C34" s="63" t="s">
-        <v>41</v>
+      <c r="C34" s="65" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="33"/>
@@ -2268,8 +2308,8 @@
         <f>B34+0.01</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="C35" s="63" t="s">
-        <v>42</v>
+      <c r="C35" s="65" t="s">
+        <v>37</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="33"/>
@@ -2287,8 +2327,8 @@
         <f>B35+0.01</f>
         <v>5.0299999999999994</v>
       </c>
-      <c r="C36" s="63" t="s">
-        <v>43</v>
+      <c r="C36" s="65" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="33"/>
@@ -2300,14 +2340,14 @@
       <c r="K36" s="35"/>
       <c r="L36" s="36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="32">
         <f>B36+0.01</f>
         <v>5.0399999999999991</v>
       </c>
-      <c r="C37" s="63" t="s">
-        <v>44</v>
+      <c r="C37" s="65" t="s">
+        <v>39</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="33"/>
@@ -2319,14 +2359,14 @@
       <c r="K37" s="35"/>
       <c r="L37" s="36"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="32">
         <f>B37+0.01</f>
         <v>5.0499999999999989</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>45</v>
+      <c r="C38" s="65" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="33"/>

--- a/Miage-Rabat/BC-MatriceEval.xlsx
+++ b/Miage-Rabat/BC-MatriceEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heisenberg\Desktop\MIAGE\ERP\Miage-Rabat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D390D0-4EC7-4D41-8837-857F7730165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D032C18-BF53-4080-8F04-5B5653DD1834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,20 +1128,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1560,10 +1560,10 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1596,10 +1596,10 @@
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="63">
+      <c r="K1" s="65">
         <v>44928</v>
       </c>
-      <c r="L1" s="64"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1704,7 +1704,7 @@
       <c r="J4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="64" t="s">
         <v>42</v>
       </c>
       <c r="L4" s="30" t="s">
@@ -1735,7 +1735,7 @@
         <f>A5+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="63" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="54"/>
@@ -1768,7 +1768,7 @@
         <f>B6+0.01</f>
         <v>1.02</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="54"/>
@@ -1793,7 +1793,7 @@
         <f>B7+0.01</f>
         <v>1.03</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="54"/>
@@ -1816,7 +1816,7 @@
         <f>B8+0.01</f>
         <v>1.04</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="54"/>
@@ -1837,7 +1837,7 @@
         <f>B9+0.01</f>
         <v>1.05</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
@@ -1892,7 +1892,7 @@
         <f>A12+0.01</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="54"/>
@@ -1911,7 +1911,7 @@
         <f>B13+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="54"/>
@@ -1930,7 +1930,7 @@
         <f t="shared" ref="B15:B17" si="2">B14+0.01</f>
         <v>2.0299999999999994</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="63" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="54"/>
@@ -1953,7 +1953,7 @@
         <f t="shared" si="2"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="54"/>
@@ -1972,7 +1972,7 @@
         <f t="shared" si="2"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="54"/>
@@ -2023,7 +2023,7 @@
         <f>A19+0.01</f>
         <v>3.01</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="54"/>
@@ -2042,7 +2042,7 @@
         <f>B20+0.01</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="54"/>
@@ -2061,7 +2061,7 @@
         <f>B21+0.01</f>
         <v>3.0299999999999994</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="63" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="54"/>
@@ -2082,7 +2082,7 @@
         <f>B22+0.01</f>
         <v>3.0399999999999991</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="63" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="54"/>
@@ -2103,7 +2103,7 @@
         <f>B23+0.01</f>
         <v>3.0499999999999989</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="54"/>
@@ -2158,7 +2158,7 @@
         <f>A26+0.01</f>
         <v>4.01</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="54"/>
@@ -2179,7 +2179,7 @@
         <f>B27+0.01</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="54"/>
@@ -2198,7 +2198,7 @@
         <f>B28+0.01</f>
         <v>4.0299999999999994</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="54"/>
@@ -2217,7 +2217,7 @@
         <f>B29+0.01</f>
         <v>4.0399999999999991</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="63" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="54"/>
@@ -2236,7 +2236,7 @@
         <f>B30+0.01</f>
         <v>4.0499999999999989</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="54"/>
@@ -2289,7 +2289,7 @@
         <f>A33+0.01</f>
         <v>5.01</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="63" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="54"/>
@@ -2308,7 +2308,7 @@
         <f>B34+0.01</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="54"/>
@@ -2327,13 +2327,15 @@
         <f>B35+0.01</f>
         <v>5.0299999999999994</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="63" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="35">
+        <v>1</v>
+      </c>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
@@ -2346,15 +2348,21 @@
         <f>B36+0.01</f>
         <v>5.0399999999999991</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="34">
+        <v>3</v>
+      </c>
+      <c r="G37" s="35">
+        <v>5</v>
+      </c>
       <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="I37" s="35">
+        <v>1</v>
+      </c>
       <c r="J37" s="35"/>
       <c r="K37" s="35"/>
       <c r="L37" s="36"/>
@@ -2365,7 +2373,7 @@
         <f>B37+0.01</f>
         <v>5.0499999999999989</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="54"/>

--- a/Miage-Rabat/BC-MatriceEval.xlsx
+++ b/Miage-Rabat/BC-MatriceEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heisenberg\Desktop\MIAGE\ERP\Miage-Rabat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D032C18-BF53-4080-8F04-5B5653DD1834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F417E96-E504-4E20-9902-A67F7E610750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Poids</t>
   </si>
@@ -192,9 +192,6 @@
     <t>SAP</t>
   </si>
   <si>
-    <t>SAGE</t>
-  </si>
-  <si>
     <t>MS-DYNAMICS</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Est-ce que l'ERP est portable de windows vers unix ?</t>
   </si>
   <si>
-    <t>Est-ce que le cout de la licence de base est inferieur a 1000$ par utilisateur ?</t>
-  </si>
-  <si>
     <t>Est-ce que l'ERP utilise oracle 11g ?</t>
   </si>
   <si>
@@ -249,37 +243,46 @@
     <t>Est-ce que l'ERP possede une garantie ?</t>
   </si>
   <si>
-    <t>Est-ce que l'esiteur peut me donner 2 consultants pour 2 semaines si je l'avertie 2mois a l'avance ?</t>
-  </si>
-  <si>
-    <t>Est ce que l'editeur utilise un standard PMI ?</t>
-  </si>
-  <si>
-    <t>Est ce que l'editeur est certifié ISO9000 ?</t>
-  </si>
-  <si>
-    <t>est ce que l'ERP arrive sur un DVD(install=&gt;RUN) ?</t>
-  </si>
-  <si>
-    <t>Est ce que l'edireur notifie la nouvelle version au moins 12 mois a l'avance ?</t>
-  </si>
-  <si>
-    <t>Est ce que les nouvelles versions de l'ERP sont compatibles avec les versions precendentes sur 3 niveaux ?</t>
-  </si>
-  <si>
     <t>Est-ce que l'editeur a une representation à Riyadh ?</t>
   </si>
   <si>
-    <t>People soft</t>
-  </si>
-  <si>
     <t>Est-ce que l'ERP sait gerer les transactions sur plusieurs machines distance ?</t>
   </si>
   <si>
     <t>Est-ce que Siebel est nativement connecté dans ERP ?</t>
   </si>
   <si>
-    <t>Est-ce que l'ERP tourne s'installe sur unix ?</t>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Est-ce que l'ERP tourne/ s'installe sur unix ?</t>
+  </si>
+  <si>
+    <t>PeopleSoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Est-ce que le cout de la licence de base est superieur a 1000$ par utilisateur ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur utilise un standard PMI ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur est certifié ISO9000 ?</t>
+  </si>
+  <si>
+    <t>est-ce que l'ERP arrive sur un DVD(install=&gt;RUN) ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'edireur notifie la nouvelle version au moins 12 mois a l'avance ?</t>
+  </si>
+  <si>
+    <t>Est-ce que les nouvelles versions de l'ERP sont compatibles avec les versions precendentes sur 3 niveaux ?</t>
+  </si>
+  <si>
+    <t>Est-ce que l'editeur peut me donner 2 consultants pour 2 semaines si je l'avertie 2mois a l'avance ?</t>
   </si>
 </sst>
 </file>
@@ -1559,11 +1562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1616,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12">
         <f>RANK(F3,$F$3:$L$3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="13">
         <f t="shared" ref="G2:L2" si="0">RANK(G3,$F$3:$L$3)</f>
@@ -1621,23 +1624,23 @@
       </c>
       <c r="H2" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1652,31 +1655,31 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20">
         <f>F40</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:L3" si="1">G40</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="H3" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I3" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="J3" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K3" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="L3" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1696,19 +1699,19 @@
         <v>15</v>
       </c>
       <c r="H4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1726,7 +1729,9 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="K5" s="56" t="s">
+        <v>39</v>
+      </c>
       <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,7 +1741,7 @@
         <v>1.01</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="33"/>
@@ -1769,7 +1774,7 @@
         <v>1.02</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="33"/>
@@ -1779,13 +1784,21 @@
       <c r="G7" s="35">
         <v>5</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="35">
+        <v>5</v>
+      </c>
       <c r="I7" s="35">
         <v>5</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
+      <c r="J7" s="35">
+        <v>3</v>
+      </c>
+      <c r="K7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
@@ -1794,21 +1807,31 @@
         <v>1.03</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34">
         <v>1</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="35">
+        <v>5</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
       <c r="I8" s="35">
         <v>1</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
+      <c r="J8" s="35">
+        <v>5</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1</v>
+      </c>
+      <c r="L8" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
@@ -1817,19 +1840,31 @@
         <v>1.04</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
+      <c r="G9" s="35">
+        <v>5</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>3</v>
+      </c>
+      <c r="J9" s="35">
+        <v>5</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+      <c r="L9" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
@@ -1838,7 +1873,7 @@
         <v>1.05</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="33"/>
@@ -1848,11 +1883,21 @@
       <c r="G10" s="35">
         <v>5</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
+      <c r="H10" s="35">
+        <v>3</v>
+      </c>
+      <c r="I10" s="35">
+        <v>5</v>
+      </c>
+      <c r="J10" s="35">
+        <v>3</v>
+      </c>
+      <c r="K10" s="35">
+        <v>3</v>
+      </c>
+      <c r="L10" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -1893,17 +1938,33 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="54"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="54">
+        <v>5</v>
+      </c>
       <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
+      <c r="F13" s="34">
+        <v>5</v>
+      </c>
+      <c r="G13" s="35">
+        <v>5</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="K13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
@@ -1912,17 +1973,33 @@
         <v>2.0199999999999996</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="54">
+        <v>5</v>
+      </c>
       <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
+      <c r="F14" s="34">
+        <v>5</v>
+      </c>
+      <c r="G14" s="35">
+        <v>5</v>
+      </c>
+      <c r="H14" s="35">
+        <v>5</v>
+      </c>
+      <c r="I14" s="35">
+        <v>5</v>
+      </c>
+      <c r="J14" s="35">
+        <v>1</v>
+      </c>
+      <c r="K14" s="35">
+        <v>1</v>
+      </c>
+      <c r="L14" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
@@ -1931,9 +2008,11 @@
         <v>2.0299999999999994</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="54"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="54">
+        <v>3</v>
+      </c>
       <c r="E15" s="33"/>
       <c r="F15" s="34">
         <v>5</v>
@@ -1941,11 +2020,21 @@
       <c r="G15" s="35">
         <v>5</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="H15" s="35">
+        <v>3</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1</v>
+      </c>
+      <c r="K15" s="35">
+        <v>5</v>
+      </c>
+      <c r="L15" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
@@ -1954,17 +2043,33 @@
         <v>2.0399999999999991</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="54"/>
+        <v>26</v>
+      </c>
+      <c r="D16" s="54">
+        <v>5</v>
+      </c>
       <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="F16" s="34">
+        <v>3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>3</v>
+      </c>
+      <c r="H16" s="35">
+        <v>3</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35">
+        <v>3</v>
+      </c>
+      <c r="L16" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
@@ -1973,17 +2078,33 @@
         <v>2.0499999999999989</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="54">
+        <v>5</v>
+      </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
+      <c r="F17" s="34">
+        <v>3</v>
+      </c>
+      <c r="G17" s="35">
+        <v>5</v>
+      </c>
+      <c r="H17" s="35">
+        <v>3</v>
+      </c>
+      <c r="I17" s="35">
+        <v>5</v>
+      </c>
+      <c r="J17" s="35">
+        <v>3</v>
+      </c>
+      <c r="K17" s="35">
+        <v>3</v>
+      </c>
+      <c r="L17" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
@@ -2024,17 +2145,33 @@
         <v>3.01</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="D20" s="54">
+        <v>3</v>
+      </c>
       <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="F20" s="34">
+        <v>5</v>
+      </c>
+      <c r="G20" s="35">
+        <v>5</v>
+      </c>
+      <c r="H20" s="35">
+        <v>3</v>
+      </c>
+      <c r="I20" s="35">
+        <v>1</v>
+      </c>
+      <c r="J20" s="35">
+        <v>5</v>
+      </c>
+      <c r="K20" s="35">
+        <v>5</v>
+      </c>
+      <c r="L20" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
@@ -2043,17 +2180,33 @@
         <v>3.0199999999999996</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="54">
+        <v>1</v>
+      </c>
       <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
+      <c r="F21" s="34">
+        <v>5</v>
+      </c>
+      <c r="G21" s="35">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35">
+        <v>1</v>
+      </c>
+      <c r="I21" s="35">
+        <v>1</v>
+      </c>
+      <c r="J21" s="35">
+        <v>1</v>
+      </c>
+      <c r="K21" s="35">
+        <v>3</v>
+      </c>
+      <c r="L21" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
@@ -2062,19 +2215,33 @@
         <v>3.0299999999999994</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="D22" s="54">
+        <v>3</v>
+      </c>
       <c r="E22" s="33"/>
       <c r="F22" s="34">
         <v>5</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="G22" s="35">
+        <v>3</v>
+      </c>
+      <c r="H22" s="35">
+        <v>3</v>
+      </c>
+      <c r="I22" s="35">
+        <v>3</v>
+      </c>
+      <c r="J22" s="35">
+        <v>3</v>
+      </c>
+      <c r="K22" s="35">
+        <v>5</v>
+      </c>
+      <c r="L22" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
@@ -2083,19 +2250,33 @@
         <v>3.0399999999999991</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="D23" s="54">
+        <v>5</v>
+      </c>
       <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="F23" s="34">
+        <v>3</v>
+      </c>
+      <c r="G23" s="35">
+        <v>3</v>
+      </c>
+      <c r="H23" s="35">
+        <v>3</v>
+      </c>
+      <c r="I23" s="35">
+        <v>3</v>
+      </c>
+      <c r="J23" s="35">
+        <v>1</v>
+      </c>
       <c r="K23" s="35">
         <v>5</v>
       </c>
-      <c r="L23" s="36"/>
+      <c r="L23" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
@@ -2104,21 +2285,33 @@
         <v>3.0499999999999989</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="54"/>
+        <v>28</v>
+      </c>
+      <c r="D24" s="54">
+        <v>5</v>
+      </c>
       <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
+      <c r="F24" s="34">
+        <v>3</v>
+      </c>
       <c r="G24" s="35">
         <v>5</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="35">
+        <v>3</v>
+      </c>
       <c r="I24" s="35">
         <v>1</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="35">
+        <v>5</v>
+      </c>
+      <c r="K24" s="35">
+        <v>3</v>
+      </c>
+      <c r="L24" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
@@ -2159,19 +2352,33 @@
         <v>4.01</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="54"/>
+        <v>40</v>
+      </c>
+      <c r="D27" s="54">
+        <v>5</v>
+      </c>
       <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="F27" s="34">
+        <v>3</v>
+      </c>
       <c r="G27" s="35">
         <v>5</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="H27" s="35">
+        <v>3</v>
+      </c>
+      <c r="I27" s="35">
+        <v>3</v>
+      </c>
+      <c r="J27" s="35">
+        <v>1</v>
+      </c>
+      <c r="K27" s="35">
+        <v>3</v>
+      </c>
+      <c r="L27" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
@@ -2180,17 +2387,33 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="D28" s="54">
+        <v>3</v>
+      </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
+      <c r="F28" s="34">
+        <v>3</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>3</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5</v>
+      </c>
+      <c r="J28" s="35">
+        <v>5</v>
+      </c>
+      <c r="K28" s="35">
+        <v>3</v>
+      </c>
+      <c r="L28" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
@@ -2199,17 +2422,33 @@
         <v>4.0299999999999994</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="54"/>
+        <v>32</v>
+      </c>
+      <c r="D29" s="54">
+        <v>5</v>
+      </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+      <c r="F29" s="34">
+        <v>5</v>
+      </c>
+      <c r="G29" s="35">
+        <v>5</v>
+      </c>
+      <c r="H29" s="35">
+        <v>5</v>
+      </c>
+      <c r="I29" s="35">
+        <v>5</v>
+      </c>
+      <c r="J29" s="35">
+        <v>5</v>
+      </c>
+      <c r="K29" s="35">
+        <v>5</v>
+      </c>
+      <c r="L29" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
@@ -2218,17 +2457,33 @@
         <v>4.0399999999999991</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="54"/>
+        <v>31</v>
+      </c>
+      <c r="D30" s="54">
+        <v>3</v>
+      </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1</v>
+      </c>
+      <c r="H30" s="35">
+        <v>3</v>
+      </c>
+      <c r="I30" s="35">
+        <v>5</v>
+      </c>
+      <c r="J30" s="35">
+        <v>5</v>
+      </c>
+      <c r="K30" s="35">
+        <v>3</v>
+      </c>
+      <c r="L30" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
@@ -2237,19 +2492,33 @@
         <v>4.0499999999999989</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="54"/>
+        <v>46</v>
+      </c>
+      <c r="D31" s="54">
+        <v>5</v>
+      </c>
       <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="F31" s="34">
+        <v>3</v>
+      </c>
       <c r="G31" s="35">
         <v>5</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="H31" s="35">
+        <v>3</v>
+      </c>
+      <c r="I31" s="35">
+        <v>5</v>
+      </c>
+      <c r="J31" s="35">
+        <v>3</v>
+      </c>
+      <c r="K31" s="35">
+        <v>3</v>
+      </c>
+      <c r="L31" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
@@ -2290,17 +2559,33 @@
         <v>5.01</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="54"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="54">
+        <v>3</v>
+      </c>
       <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="F34" s="34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="35">
+        <v>5</v>
+      </c>
+      <c r="H34" s="35">
+        <v>5</v>
+      </c>
+      <c r="I34" s="35">
+        <v>3</v>
+      </c>
+      <c r="J34" s="35">
+        <v>3</v>
+      </c>
+      <c r="K34" s="35">
+        <v>5</v>
+      </c>
+      <c r="L34" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
@@ -2309,17 +2594,33 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="54"/>
+        <v>42</v>
+      </c>
+      <c r="D35" s="54">
+        <v>5</v>
+      </c>
       <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="F35" s="34">
+        <v>5</v>
+      </c>
+      <c r="G35" s="35">
+        <v>5</v>
+      </c>
+      <c r="H35" s="35">
+        <v>5</v>
+      </c>
+      <c r="I35" s="35">
+        <v>5</v>
+      </c>
+      <c r="J35" s="35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="35">
+        <v>5</v>
+      </c>
+      <c r="L35" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
@@ -2328,19 +2629,33 @@
         <v>5.0299999999999994</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="54"/>
+        <v>43</v>
+      </c>
+      <c r="D36" s="54">
+        <v>1</v>
+      </c>
       <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="F36" s="34">
+        <v>1</v>
+      </c>
       <c r="G36" s="35">
         <v>1</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="H36" s="35">
+        <v>1</v>
+      </c>
+      <c r="I36" s="35">
+        <v>1</v>
+      </c>
+      <c r="J36" s="35">
+        <v>1</v>
+      </c>
+      <c r="K36" s="35">
+        <v>1</v>
+      </c>
+      <c r="L36" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
@@ -2349,9 +2664,11 @@
         <v>5.0399999999999991</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="54"/>
+        <v>44</v>
+      </c>
+      <c r="D37" s="54">
+        <v>5</v>
+      </c>
       <c r="E37" s="33"/>
       <c r="F37" s="34">
         <v>3</v>
@@ -2359,13 +2676,21 @@
       <c r="G37" s="35">
         <v>5</v>
       </c>
-      <c r="H37" s="35"/>
+      <c r="H37" s="35">
+        <v>3</v>
+      </c>
       <c r="I37" s="35">
         <v>1</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="J37" s="35">
+        <v>3</v>
+      </c>
+      <c r="K37" s="35">
+        <v>3</v>
+      </c>
+      <c r="L37" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
@@ -2374,17 +2699,33 @@
         <v>5.0499999999999989</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="D38" s="54">
+        <v>5</v>
+      </c>
       <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="F38" s="34">
+        <v>3</v>
+      </c>
+      <c r="G38" s="35">
+        <v>5</v>
+      </c>
+      <c r="H38" s="35">
+        <v>3</v>
+      </c>
+      <c r="I38" s="35">
+        <v>1</v>
+      </c>
+      <c r="J38" s="35">
+        <v>3</v>
+      </c>
+      <c r="K38" s="35">
+        <v>5</v>
+      </c>
+      <c r="L38" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -2410,31 +2751,31 @@
       <c r="E40" s="49"/>
       <c r="F40" s="50">
         <f t="shared" ref="F40:L40" si="3">SUMPRODUCT($D$6:$D$39,F6:F39)</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="G40" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="H40" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I40" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="J40" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K40" s="51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="L40" s="52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
